--- a/ILS.xlsx
+++ b/ILS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="51">
   <si>
     <t>Flag</t>
   </si>
@@ -212,7 +212,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="70">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,8 +351,263 @@
         <bgColor indexed="10"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill>
+        <bgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="11"/>
+        <bgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <bgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="43"/>
+        <bgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <bgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+        <bgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <bgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="11"/>
+        <bgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <bgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="43"/>
+        <bgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <bgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+        <bgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <bgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="11"/>
+        <bgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <bgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="43"/>
+        <bgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <bgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+        <bgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <bgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="11"/>
+        <bgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <bgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="43"/>
+        <bgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <bgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+        <bgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <bgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="11"/>
+        <bgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <bgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="43"/>
+        <bgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <bgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+        <bgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="10"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -448,12 +703,102 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -506,6 +851,72 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="16" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="16" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="16" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="16" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="16" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="16" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="16" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="16" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="20" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="20" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="20" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="20" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="20" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="20" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="20" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="20" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="20" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="20" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="20" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="20" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="20" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="20" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="24" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="24" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="24" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="24" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="24" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="24" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="24" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="24" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="24" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="24" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="24" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="24" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="24" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="24" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="28" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="28" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="28" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="28" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="28" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="28" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="28" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="28" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="28" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="28" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="28" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="28" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="28" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="28" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="32" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="32" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="32" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="32" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="32" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="32" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="32" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="32" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="32" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="32" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="32" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="32" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="32" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="32" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -882,7 +1293,7 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s" s="36">
+      <c r="F2" t="s" s="102">
         <v>48</v>
       </c>
       <c r="G2" t="s">
@@ -905,7 +1316,7 @@
       <c r="E3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F3" t="s" s="37">
+      <c r="F3" t="s" s="103">
         <v>48</v>
       </c>
       <c r="G3" t="s">
@@ -928,7 +1339,7 @@
       <c r="E4" t="s">
         <v>46</v>
       </c>
-      <c r="F4" t="s" s="38">
+      <c r="F4" t="s" s="104">
         <v>49</v>
       </c>
       <c r="G4" t="s">
@@ -951,7 +1362,7 @@
       <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s" s="39">
+      <c r="F5" t="s" s="105">
         <v>49</v>
       </c>
       <c r="G5" t="s">
@@ -974,7 +1385,7 @@
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s" s="40">
+      <c r="F6" t="s" s="106">
         <v>49</v>
       </c>
       <c r="G6" t="s">
@@ -997,7 +1408,7 @@
       <c r="E7" t="s">
         <v>46</v>
       </c>
-      <c r="F7" t="s" s="41">
+      <c r="F7" t="s" s="107">
         <v>49</v>
       </c>
       <c r="G7" t="s">
@@ -1020,7 +1431,7 @@
       <c r="E8" t="s">
         <v>46</v>
       </c>
-      <c r="F8" t="s" s="42">
+      <c r="F8" t="s" s="108">
         <v>49</v>
       </c>
       <c r="G8" t="s">
@@ -1043,7 +1454,7 @@
       <c r="E9" t="s">
         <v>46</v>
       </c>
-      <c r="F9" t="s" s="43">
+      <c r="F9" t="s" s="109">
         <v>49</v>
       </c>
       <c r="G9" t="s">
@@ -1066,7 +1477,7 @@
       <c r="E10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F10" t="s" s="44">
+      <c r="F10" t="s" s="110">
         <v>50</v>
       </c>
       <c r="G10" t="s">
@@ -1089,7 +1500,7 @@
       <c r="E11" t="s">
         <v>46</v>
       </c>
-      <c r="F11" t="s" s="45">
+      <c r="F11" t="s" s="111">
         <v>50</v>
       </c>
       <c r="G11" t="s">
@@ -1112,7 +1523,7 @@
       <c r="E12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F12" t="s" s="46">
+      <c r="F12" t="s" s="112">
         <v>49</v>
       </c>
       <c r="G12" t="s">
@@ -1135,7 +1546,7 @@
       <c r="E13" t="s">
         <v>46</v>
       </c>
-      <c r="F13" t="s" s="47">
+      <c r="F13" t="s" s="113">
         <v>49</v>
       </c>
       <c r="G13" t="s">
@@ -1158,7 +1569,7 @@
       <c r="E14" t="s">
         <v>46</v>
       </c>
-      <c r="F14" t="s" s="48">
+      <c r="F14" t="s" s="114">
         <v>49</v>
       </c>
       <c r="G14" t="s">
@@ -1181,7 +1592,7 @@
       <c r="E15" t="s">
         <v>46</v>
       </c>
-      <c r="F15" t="s" s="49">
+      <c r="F15" t="s" s="115">
         <v>48</v>
       </c>
       <c r="G15" t="s">
